--- a/Xia_SourceData_Fig5/repeated public goods games/panel f/AVERAGED_proportion.xlsx
+++ b/Xia_SourceData_Fig5/repeated public goods games/panel f/AVERAGED_proportion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuarkMao\CURE-main\simulation experiments\data\Figure 6\repeated public goods games\panel f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuarkMao\1. 完成工作\2. CURE_投稿\CURE_submation_version2_2022update_原始\最终版本\Source Data_confirm\Xia_SourceData_Fig5\repeated public goods games\panel f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C6AF7-FD0D-4750-8131-6F12FCA2C51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF315AD-EDF4-4C89-90EF-279A5A0DC501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="6975" xr2:uid="{11EA5862-398F-404B-8C60-32F889BCF8DF}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
